--- a/data/trans_camb/P2B_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P2B_R-Edad-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>17.41039731911226</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-0.7541235876143554</v>
+        <v>-0.7541235876143582</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>35.95322746078854</v>
@@ -655,7 +655,7 @@
         <v>30.5956586218537</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>9.7344512696442</v>
+        <v>9.734451269644195</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>33.60627577025602</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>22.75898359836647</v>
+        <v>23.07277489446118</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>9.278742349605562</v>
+        <v>8.818489643537596</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-10.20159441567205</v>
+        <v>-10.12873565268481</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>28.23666724217597</v>
+        <v>29.46012419146803</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>23.62537751872771</v>
+        <v>22.94020888485657</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.6853685800688613</v>
+        <v>0.2794529167966392</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>28.35925635432056</v>
+        <v>28.64895027629724</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>18.52928716578602</v>
+        <v>19.13448728104893</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-2.098423402797022</v>
+        <v>-1.558744967925154</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>38.44410396940821</v>
+        <v>38.55264696811312</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>25.89704602246922</v>
+        <v>25.34433477321059</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10.63529614399413</v>
+        <v>10.63732938070297</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>42.36310224800111</v>
+        <v>43.07759927091328</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>38.83980052948949</v>
+        <v>37.47861572889614</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>20.26570163267121</v>
+        <v>20.11045629466634</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>38.80518667090879</v>
+        <v>39.06992210273329</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>29.77690288038739</v>
+        <v>30.06985783532136</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>12.16233215520241</v>
+        <v>12.05911334579576</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.9011549070863218</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.03903312251135169</v>
+        <v>-0.03903312251135184</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>2.253965980880069</v>
@@ -760,7 +760,7 @@
         <v>1.918091324944036</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.610268494761488</v>
+        <v>0.6102684947614877</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>1.920406396806893</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.9571869949702285</v>
+        <v>0.9789625661184972</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.3930075861373502</v>
+        <v>0.4133556005026709</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.4745177271610515</v>
+        <v>-0.4733362855471427</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>1.447119306593845</v>
+        <v>1.516616891308896</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>1.258441668346847</v>
+        <v>1.189772173767058</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01368897138434578</v>
+        <v>0.01477581319253924</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>1.387997028687858</v>
+        <v>1.425884473291399</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.9336847917808105</v>
+        <v>0.9361481223512998</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.1143243179123103</v>
+        <v>-0.08226278195529352</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>2.52927766130358</v>
+        <v>2.42952215757955</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.587542263992314</v>
+        <v>1.560377672035277</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.6524089562834847</v>
+        <v>0.6481518879968678</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>3.341947233156377</v>
+        <v>3.459245342761283</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>3.011962479568209</v>
+        <v>2.896441640996618</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.536712547670619</v>
+        <v>1.447131477538645</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>2.567270172180402</v>
+        <v>2.592901598644497</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.944699836717234</v>
+        <v>2.011665596277924</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.7484940220818498</v>
+        <v>0.7645987035164752</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>26.61620956024563</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1.917731227296043</v>
+        <v>1.917731227296049</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>41.61024154452647</v>
@@ -878,7 +878,7 @@
         <v>29.10816596219111</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.6259368480232508</v>
+        <v>0.6259368480232563</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>19.0922370757301</v>
+        <v>19.95044740795869</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>19.65347226215464</v>
+        <v>18.37004268593284</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-7.266805577973964</v>
+        <v>-7.198703115922362</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>35.47861976914749</v>
+        <v>35.66807075525142</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>24.03996609179522</v>
+        <v>24.2069088470369</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-7.89886277628015</v>
+        <v>-7.597509037104766</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>29.86131344146442</v>
+        <v>29.33559334388222</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>24.58874502715265</v>
+        <v>24.51003188899</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-4.171975642862781</v>
+        <v>-5.443913690495655</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>31.55139330039533</v>
+        <v>32.2781235511609</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>34.59759204419954</v>
+        <v>33.38856075480354</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>11.82266798880287</v>
+        <v>11.29887782583764</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>47.15978325030945</v>
+        <v>46.96874700145885</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>36.70908357321876</v>
+        <v>36.45418800205353</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>5.760248113672248</v>
+        <v>6.652406121252113</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>38.59940192957235</v>
+        <v>38.52938663740021</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>34.02761818819229</v>
+        <v>33.92467881652381</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>6.36978932495482</v>
+        <v>5.826584819091133</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.9015777649324661</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.06495980690763715</v>
+        <v>0.06495980690763734</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>1.206352680460986</v>
@@ -983,7 +983,7 @@
         <v>0.9045986433413805</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.01945232909124826</v>
+        <v>0.01945232909124843</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.5742689748290205</v>
+        <v>0.6080264972837298</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.5948337508267044</v>
+        <v>0.5656534335538667</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2250728366269146</v>
+        <v>-0.2316852440492893</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.9382871006094008</v>
+        <v>0.9180099995162267</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.6108283951513329</v>
+        <v>0.6310762190717834</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2141386105608068</v>
+        <v>-0.2049945188341789</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8685456247645477</v>
+        <v>0.8464082518123556</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.7152596384390456</v>
+        <v>0.7164310632333594</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.1227580780969122</v>
+        <v>-0.1616321913672176</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.217545022046602</v>
+        <v>1.22027893173125</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.316528663176897</v>
+        <v>1.269435411934067</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.4496143391281297</v>
+        <v>0.4041189809165125</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.531320079882031</v>
+        <v>1.524877094781806</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.179285746106165</v>
+        <v>1.18434310112876</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1760528892886116</v>
+        <v>0.2085629345662889</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.321334142022893</v>
+        <v>1.294189419711367</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.163127023909707</v>
+        <v>1.142916985646063</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.2139261497879606</v>
+        <v>0.1923439372199807</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>34.20431862792855</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5.95513644690488</v>
+        <v>5.95513644690489</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>46.8170260468333</v>
@@ -1083,7 +1083,7 @@
         <v>35.01774748694542</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-0.3267588331964943</v>
+        <v>-0.3267588331964888</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>46.32023536237588</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>40.22197047167599</v>
+        <v>40.27017539874938</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>28.02683810136209</v>
+        <v>28.6987760478458</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.4085607822033522</v>
+        <v>0.1187668676214243</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>41.45255992389612</v>
+        <v>41.73388140483178</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>29.71582606142595</v>
+        <v>29.38196893711482</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-5.802121483120074</v>
+        <v>-5.229750717920576</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>42.51827426042873</v>
+        <v>42.43417383689005</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>30.53810246434229</v>
+        <v>30.74573540577064</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-1.176711825362973</v>
+        <v>-1.480712215179104</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>51.48261225668884</v>
+        <v>51.00915216517478</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>40.47967775927226</v>
+        <v>40.17179049596773</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>12.528219642269</v>
+        <v>12.35526241721625</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>51.44131420667604</v>
+        <v>51.34027320707245</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>40.64144860286054</v>
+        <v>39.77610540389011</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>4.482320015846865</v>
+        <v>4.471837542485445</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>49.79029037922655</v>
+        <v>49.63820727952001</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>38.35076146204344</v>
+        <v>38.34108543928598</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>6.667273861878449</v>
+        <v>6.446294531163102</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>1.268383233788423</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.2208316238174967</v>
+        <v>0.2208316238174971</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>1.56110369553132</v>
@@ -1188,7 +1188,7 @@
         <v>1.167659281825542</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.01089570323284242</v>
+        <v>-0.01089570323284224</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>1.619871169808889</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>1.334147295169146</v>
+        <v>1.343279480108563</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.9103271964068699</v>
+        <v>0.9485794186014361</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.01798131325815708</v>
+        <v>0.003553963142256187</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>1.2561160992711</v>
+        <v>1.250141595900003</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9142623563701223</v>
+        <v>0.8892731570660227</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1782352180098095</v>
+        <v>-0.1632786700069127</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>1.370080089649809</v>
+        <v>1.372305003473063</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.9837170461496785</v>
+        <v>1.003412456469879</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.03740833602900061</v>
+        <v>-0.04866967325571355</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>2.158618162166932</v>
+        <v>2.22142930448218</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.715443589433665</v>
+        <v>1.705936459580657</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.4944459751651157</v>
+        <v>0.500093516833621</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.909222346578286</v>
+        <v>1.894724796961268</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.521331371699376</v>
+        <v>1.462167649165095</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1646267951733632</v>
+        <v>0.1607495075230499</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.887820102209237</v>
+        <v>1.872241527681391</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.445538764804907</v>
+        <v>1.434624547929835</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.2519842284994824</v>
+        <v>0.2427822529656465</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>21.02838474180889</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>4.743336789395936</v>
+        <v>4.743336789395924</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>31.91402994029183</v>
@@ -1306,7 +1306,7 @@
         <v>22.91749714342334</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>6.782657884463078</v>
+        <v>6.782657884463076</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>32.74874329573515</v>
+        <v>33.05399834652987</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>19.14161542375165</v>
+        <v>19.01071457863297</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3.410464160143087</v>
+        <v>3.066892200848484</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>19.14003649076901</v>
+        <v>19.36063384052445</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>14.89985223333151</v>
+        <v>14.83430586671683</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.4236686710919223</v>
+        <v>-0.3757072643263991</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>27.12770120323897</v>
+        <v>27.58236920745217</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>18.3131680054093</v>
+        <v>18.45631889145814</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>2.864906952274629</v>
+        <v>3.210188522885125</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>44.73294092825596</v>
+        <v>45.32720536930963</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>30.66104810194243</v>
+        <v>30.69503808251259</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>13.93971242056696</v>
+        <v>14.43446111281226</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>31.66906783014806</v>
+        <v>31.42415391308969</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>27.18058616444243</v>
+        <v>26.93382849801838</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>9.514279595727553</v>
+        <v>9.491880188672873</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>35.86597519002122</v>
+        <v>36.43789074608679</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>27.13327802581234</v>
+        <v>27.18711959962364</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>10.65083391029733</v>
+        <v>10.87873546016442</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>1.082726954972937</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2442288678589198</v>
+        <v>0.2442288678589192</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>1.793660985537475</v>
@@ -1411,7 +1411,7 @@
         <v>1.288029765881365</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.38120503265713</v>
+        <v>0.3812050326571298</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>1.645313138888737</v>
+        <v>1.727487112055037</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.9824065085610335</v>
+        <v>1.007704289108737</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.160737413269576</v>
+        <v>0.1607462265367219</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.843867596506952</v>
+        <v>0.8213102004513709</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.6429538775922518</v>
+        <v>0.6551584069969385</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.02021206807653943</v>
+        <v>-0.01847789525976714</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>1.343215889099919</v>
+        <v>1.390073287924226</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.9019198474026469</v>
+        <v>0.9148042896022378</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.1416662680513153</v>
+        <v>0.1636596833687254</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>3.346169909267958</v>
+        <v>3.470979870156953</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>2.263558748017319</v>
+        <v>2.419402193819577</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.005042037614606</v>
+        <v>1.081341527087261</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.902955276439043</v>
+        <v>1.918381783095118</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.626721799769022</v>
+        <v>1.600469345941266</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.5911115656155033</v>
+        <v>0.5655321309259979</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>2.313850379970243</v>
+        <v>2.366204599404643</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.731435298825493</v>
+        <v>1.778019033739387</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.6800585795873061</v>
+        <v>0.6878711226309532</v>
       </c>
     </row>
     <row r="28">
@@ -1520,7 +1520,7 @@
         <v>7.532425363064438</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>1.716911915928232</v>
+        <v>1.716911915928229</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>9.379046312164064</v>
+        <v>9.26281843815682</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>3.02231954147326</v>
+        <v>2.670365379438973</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-1.208354792677762</v>
+        <v>-1.453290601954106</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>5.029505389544712</v>
+        <v>5.091269408361335</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.7129907909544585</v>
+        <v>-0.1974811443328713</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-6.842421017743651</v>
+        <v>-6.420236785018162</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>9.079256264333921</v>
+        <v>8.811993608816502</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>3.074833391521454</v>
+        <v>3.016515534777627</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-2.253316545621307</v>
+        <v>-2.166573166872023</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>22.20923266990849</v>
+        <v>22.1810735964464</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>15.51072510064531</v>
+        <v>15.37675912760124</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>10.65416243144704</v>
+        <v>10.24502310542038</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>17.37327825885077</v>
+        <v>17.94316333418642</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>12.09807415718424</v>
+        <v>12.13071532924174</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>3.586995332568095</v>
+        <v>3.944798981199698</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>18.03562238608314</v>
+        <v>17.59606380172765</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>12.25463883885476</v>
+        <v>11.92542886524923</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>5.395045653157305</v>
+        <v>5.672253125290629</v>
       </c>
     </row>
     <row r="31">
@@ -1625,7 +1625,7 @@
         <v>0.4228804790126668</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.09638974147563353</v>
+        <v>0.09638974147563338</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.5076697640249577</v>
+        <v>0.5248705568805331</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.1719315669665393</v>
+        <v>0.1320979096381226</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.07137166496684615</v>
+        <v>-0.0834969093674784</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.199385680963972</v>
+        <v>0.2088515638179245</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.02932128164733728</v>
+        <v>-0.00958664172742277</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.2835297214871245</v>
+        <v>-0.2636184181878456</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4651981214351075</v>
+        <v>0.4338088189109686</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.1506592853234295</v>
+        <v>0.1430213839394475</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.1142308045668829</v>
+        <v>-0.1104679687981744</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.886190517860228</v>
+        <v>1.968093390286157</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.346705667089036</v>
+        <v>1.256943713067237</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.9154423168235039</v>
+        <v>0.8881218814672621</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.9832121890593137</v>
+        <v>1.033007499881553</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.690641306910468</v>
+        <v>0.681101476832218</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.2134330923295331</v>
+        <v>0.2310600100955346</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>1.137228164683223</v>
+        <v>1.129390418921379</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.7803979036036307</v>
+        <v>0.7580481440071253</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.3516181419736025</v>
+        <v>0.357629357436991</v>
       </c>
     </row>
     <row r="34">
@@ -1716,7 +1716,7 @@
         <v>8.080759448201178</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>-2.677664315170264</v>
+        <v>-2.677664315170261</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>2.47070143717199</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>8.676167786134974</v>
+        <v>8.405440081079545</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>1.746828476753158</v>
+        <v>1.821561055590495</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-7.86542032254639</v>
+        <v>-7.239533030459092</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-3.828371755912028</v>
+        <v>-3.72787385313308</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-2.865578265111499</v>
+        <v>-2.505930684611461</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-11.875280578795</v>
+        <v>-11.59061971959265</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>3.746728877768613</v>
+        <v>4.033797372248623</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>1.687496341538278</v>
+        <v>1.388911018480362</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-8.348591365368906</v>
+        <v>-8.898256233681995</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>22.62673009703331</v>
+        <v>22.26381050354104</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>13.99061029320524</v>
+        <v>14.10562971511578</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1.708562397989506</v>
+        <v>1.900904656664895</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>9.047690784739583</v>
+        <v>8.487542798725332</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>10.06759087230147</v>
+        <v>10.01895797775009</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>-2.162504266963386</v>
+        <v>-1.816933516259119</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>12.96701780282561</v>
+        <v>13.09444493484683</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>10.43565408020413</v>
+        <v>9.896377987810409</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>-1.55373426493738</v>
+        <v>-1.717507310993377</v>
       </c>
     </row>
     <row r="37">
@@ -1821,7 +1821,7 @@
         <v>0.5704573029308387</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>-0.1890284165959437</v>
+        <v>-0.1890284165959435</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>0.1044595884531028</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.5220199153642696</v>
+        <v>0.4849371415064753</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>0.0993822086612227</v>
+        <v>0.101693143766048</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.4507567212464565</v>
+        <v>-0.4262098562902217</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.1505894584459251</v>
+        <v>-0.1418707443638898</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.1083582290423785</v>
+        <v>-0.09780089775039949</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.43398696127755</v>
+        <v>-0.4352629313094608</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1739327768430035</v>
+        <v>0.1877323916094565</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.08502124479131969</v>
+        <v>0.0559794917738321</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.3942386415200112</v>
+        <v>-0.4048262755758717</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1.953155269930366</v>
+        <v>1.958320888774532</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1.18764972370031</v>
+        <v>1.224446025614645</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.1579763615344825</v>
+        <v>0.1688181276843704</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.4237158771355083</v>
+        <v>0.4028386474603097</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.4893300074187807</v>
+        <v>0.4849662114381568</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>-0.1039900607250352</v>
+        <v>-0.09318239552918731</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.7711708786823536</v>
+        <v>0.7840052318535661</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.6161727465300745</v>
+        <v>0.5776266754059952</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>-0.08836824990583771</v>
+        <v>-0.1018643978842823</v>
       </c>
     </row>
     <row r="40">
@@ -1948,7 +1948,7 @@
         <v>12.97630722008333</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>6.947747351672461</v>
+        <v>6.947747351672468</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>9.342821797238516</v>
+        <v>8.040551236328149</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-0.1419469442362874</v>
+        <v>-0.1357660842119656</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-7.130329484972635</v>
+        <v>-6.904750989726262</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>9.660763656304738</v>
+        <v>9.84781642623645</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>7.727608249543332</v>
+        <v>7.824930721152744</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>4.684571156870272</v>
+        <v>5.019280026664251</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>12.2529113190156</v>
+        <v>11.46876761877812</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>7.105362755574579</v>
+        <v>6.907167978033497</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>2.312067256510397</v>
+        <v>2.081307968722303</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>28.19928389671105</v>
+        <v>27.1920749980886</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>16.25135058498426</v>
+        <v>15.88368406661817</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>7.813131056794072</v>
+        <v>7.673712790547585</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>25.51066784731587</v>
+        <v>25.22297825472692</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>23.64560847090398</v>
+        <v>23.87225655901702</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>17.13774627175586</v>
+        <v>17.01900484397515</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>23.65926266393381</v>
+        <v>23.32112847491415</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>18.8743754682936</v>
+        <v>18.50370988215998</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>12.43583075563316</v>
+        <v>11.99925504326248</v>
       </c>
     </row>
     <row r="43">
@@ -2053,7 +2053,7 @@
         <v>0.4214313051180649</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.2256418705557668</v>
+        <v>0.2256418705557669</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.29104004075569</v>
+        <v>0.2458043287306226</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.01034299674577639</v>
+        <v>-0.004487614723206501</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.2139132694923634</v>
+        <v>-0.2033887719226764</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.2614816808294164</v>
+        <v>0.2697334262607002</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.2098519302767098</v>
+        <v>0.2141232511856749</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.125861482952288</v>
+        <v>0.1327319049080878</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.3667048478930577</v>
+        <v>0.338641101358678</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.2016647305340196</v>
+        <v>0.2104215443823387</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.0664323498454736</v>
+        <v>0.05941102724087156</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>1.187594158394279</v>
+        <v>1.132116734383243</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.6974382953020866</v>
+        <v>0.6478347495125492</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.3335333363451745</v>
+        <v>0.3141514323811247</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.905285363062442</v>
+        <v>0.9097262939072306</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.8343847261691991</v>
+        <v>0.8587628313844509</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.6100562523582524</v>
+        <v>0.6110387136995745</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.8522442437068872</v>
+        <v>0.8339835684166426</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.6792642371726514</v>
+        <v>0.6744619385949507</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.4694918128485591</v>
+        <v>0.4364631801628965</v>
       </c>
     </row>
     <row r="46">
@@ -2153,7 +2153,7 @@
         <v>20.77234413794626</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>1.525037294928255</v>
+        <v>1.525037294928261</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>28.88033341328739</v>
@@ -2162,7 +2162,7 @@
         <v>20.33558919000323</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>1.879274276697063</v>
+        <v>1.879274276697068</v>
       </c>
     </row>
     <row r="47">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>27.39564585874236</v>
+        <v>27.09698777705167</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>16.97661839781503</v>
+        <v>17.22756004931487</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-0.1459822610922535</v>
+        <v>-0.330592096868233</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>25.46123765387043</v>
+        <v>25.58884936497171</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>18.25489800239256</v>
+        <v>18.10772514778451</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-0.7865994471940335</v>
+        <v>-0.6700984773325287</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>27.29884999552814</v>
+        <v>26.9565756137362</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>18.58913261802801</v>
+        <v>18.64604970738736</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>0.3101371603903813</v>
+        <v>0.2657151657754463</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>32.56768461913658</v>
+        <v>32.40710098347425</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>22.32528972765675</v>
+        <v>22.38146090136292</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>4.618646111626736</v>
+        <v>4.657883942591935</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>30.40869775769913</v>
+        <v>30.45253854830802</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>23.27471622458442</v>
+        <v>23.196727754402</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>3.748719808704355</v>
+        <v>3.649472846303818</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>30.71697151509132</v>
+        <v>30.53801500122588</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>22.31812855262064</v>
+        <v>22.28606553476792</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>3.386830930717118</v>
+        <v>3.644872731454568</v>
       </c>
     </row>
     <row r="49">
@@ -2258,7 +2258,7 @@
         <v>0.7931790872767751</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.05823260396714331</v>
+        <v>0.05823260396714353</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>1.19448430012247</v>
@@ -2267,7 +2267,7 @@
         <v>0.8410755400082529</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>0.07772637479683221</v>
+        <v>0.07772637479683245</v>
       </c>
     </row>
     <row r="50">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>1.1766529423201</v>
+        <v>1.158851067405297</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.7370375426620394</v>
+        <v>0.7401413129180001</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.002979725853719657</v>
+        <v>-0.01477088006911936</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.9211681724666193</v>
+        <v>0.9268531672738001</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.6683784903553397</v>
+        <v>0.6545537593775576</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.02915453034604425</v>
+        <v>-0.02451206311691318</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>1.085555744817279</v>
+        <v>1.077254809098956</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.7426026063324913</v>
+        <v>0.7442166903763928</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>0.01231359961607122</v>
+        <v>0.01245337202027757</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>1.585027516708063</v>
+        <v>1.569365357781517</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>1.087897827750825</v>
+        <v>1.083514556816067</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.2241215567676607</v>
+        <v>0.2261230534524713</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>1.216037689618571</v>
+        <v>1.208723252372273</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.9313495167056948</v>
+        <v>0.9238464385512056</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.1483648979677754</v>
+        <v>0.1452272628862179</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>1.32224268963456</v>
+        <v>1.312736423605777</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.9592290908663669</v>
+        <v>0.961023071409643</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.1438803502684118</v>
+        <v>0.155956247140593</v>
       </c>
     </row>
     <row r="52">
